--- a/biology/Médecine/Paralysie_obstétricale_du_plexus_brachial/Paralysie_obstétricale_du_plexus_brachial.xlsx
+++ b/biology/Médecine/Paralysie_obstétricale_du_plexus_brachial/Paralysie_obstétricale_du_plexus_brachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paralysie_obst%C3%A9tricale_du_plexus_brachial</t>
+          <t>Paralysie_obstétricale_du_plexus_brachial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paralysie obstétricale du plexus brachial est une complication de l'accouchement et plus particulièrement de la période d'expulsion. C'est souvent une séquelle de la dystocie des épaules mais peut survenir aussi sans dystocie des épaules.
 Il s'agit d'une paralysie partielle ou totale du bras et de la main, causée à la naissance par une lésion des nerfs situés à la racine du bras secondaire à un étirement du plexus brachial. Le bras atteint est généralement le bras antérieur de la présentation c’est-à-dire celui qui se présente le plus avant au moment de l'expulsion. Il existe aussi quelques cas d'atteintes du bras postérieur.
